--- a/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,92</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,49</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>-38,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>127,24%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 15,17</t>
+          <t>-15,01; 9,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 7,97</t>
+          <t>-8,19; 30,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 1,05</t>
+          <t>-1,42; 15,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 18,44</t>
+          <t>-100,0; 533,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,74; 11,45</t>
+          <t>-26,47; 179,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 0,94</t>
+          <t>-26,41; 901,21</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,38</t>
+          <t>9,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-17,95</t>
+          <t>17,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,84</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,92</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,82%</t>
+          <t>208,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,44%</t>
+          <t>110,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,9%</t>
+          <t>252,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,09%</t>
+          <t>132,33%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -0,78</t>
+          <t>1,12; 17,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,29; -4,48</t>
+          <t>3,44; 31,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,66; -6,59</t>
+          <t>5,55; 25,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,52; -7,0</t>
+          <t>5,65; 24,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,01; -0,97</t>
+          <t>-19,77; 1119,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,41; -6,09</t>
+          <t>8,04; 359,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,0; -7,14</t>
+          <t>42,12; 853,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,66; -8,68</t>
+          <t>27,28; 322,16</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>130,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 3,26</t>
+          <t>-2,58; 17,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 8,79</t>
+          <t>-10,3; 18,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 7,56</t>
+          <t>-7,92; 12,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 8,23</t>
+          <t>-8,93; 11,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 3,52</t>
+          <t>-40,13; 931,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 11,44</t>
+          <t>-41,98; 231,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 8,5</t>
+          <t>-69,33; 344,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 12,0</t>
+          <t>-30,29; 59,56</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,01</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,26</t>
+          <t>17,26</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,83</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,55%</t>
+          <t>235,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,16%</t>
+          <t>120,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>114,19%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,81; -0,94</t>
+          <t>1,83; 21,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,16; -6,71</t>
+          <t>5,23; 27,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 7,2</t>
+          <t>-7,79; 19,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,85; -3,43</t>
+          <t>3,67; 17,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,74; -1,32</t>
+          <t>-22,17; 1319,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,49; -8,25</t>
+          <t>22,86; 294,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 9,1</t>
+          <t>-36,71; 165,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,16; -4,0</t>
+          <t>21,28; 327,21</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-18,34</t>
+          <t>18,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-19,07%</t>
+          <t>478,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,98%</t>
+          <t>32,61%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 13,98</t>
+          <t>-13,94; 22,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 13,48</t>
+          <t>-13,97; 25,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,28; -5,07</t>
+          <t>5,58; 33,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 5,75</t>
+          <t>-6,6; 16,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 19,42</t>
+          <t>-55,32; 343,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 20,15</t>
+          <t>-42,24; 277,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,36; -5,52</t>
+          <t>13,78; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 7,63</t>
+          <t>-28,62; 168,11</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,12</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>74,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,95%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-15,28%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>44,38%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 5,29</t>
+          <t>-4,98; 16,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 12,63</t>
+          <t>-11,96; 19,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 3,57</t>
+          <t>-3,19; 29,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,32; -0,72</t>
+          <t>0,5; 19,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 6,03</t>
+          <t>-47,84; 741,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 18,23</t>
+          <t>-38,62; 152,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 4,15</t>
+          <t>-14,34; 223,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,94; -1,18</t>
+          <t>0,67; 107,59</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,83</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-15,91%</t>
+          <t>105,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>15,97%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,03</t>
+          <t>-4,59; 4,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 3,56</t>
+          <t>-4,09; 17,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,11; -5,21</t>
+          <t>4,19; 24,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 13,36</t>
+          <t>-11,06; 14,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 5,34</t>
+          <t>-77,17; 307,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 4,39</t>
+          <t>-24,91; 183,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-27,68; -6,13</t>
+          <t>18,71; 275,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 16,59</t>
+          <t>-65,48; 137,3</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,52</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,14</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>45,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,56%</t>
+          <t>116,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>113,51%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 4,13</t>
+          <t>-2,95; 15,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -1,97</t>
+          <t>1,23; 18,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 3,17</t>
+          <t>-3,18; 12,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -4,38</t>
+          <t>4,16; 15,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 5,06</t>
+          <t>-19,3; 174,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,62; -2,43</t>
+          <t>2,03; 398,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 3,54</t>
+          <t>-31,9; 228,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,1; -5,09</t>
+          <t>33,12; 257,52</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-10,98</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,41</t>
+          <t>1,82; 8,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,34</t>
+          <t>6,46; 15,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -5,36</t>
+          <t>5,84; 14,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -1,01</t>
+          <t>0,42; 11,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -2,66</t>
+          <t>16,21; 137,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -7,53</t>
+          <t>35,68; 126,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -6,25</t>
+          <t>41,26; 142,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -1,17</t>
+          <t>9,27; 90,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 9,94</t>
+          <t>-15,27; 9,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 30,28</t>
+          <t>-10,19; 29,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 533,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 179,95</t>
+          <t>-29,69; 192,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 17,5</t>
+          <t>1,49; 17,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 31,25</t>
+          <t>1,9; 30,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 25,62</t>
+          <t>6,72; 26,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 1119,34</t>
+          <t>-8,07; 1136,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 359,84</t>
+          <t>4,8; 359,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,12; 853,38</t>
+          <t>53,16; 1155,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 17,59</t>
+          <t>-2,92; 16,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 18,73</t>
+          <t>-9,43; 19,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 12,94</t>
+          <t>-6,61; 13,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 931,88</t>
+          <t>-42,47; 798,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 231,08</t>
+          <t>-40,14; 220,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-69,33; 344,25</t>
+          <t>-65,14; 368,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 21,34</t>
+          <t>1,78; 21,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 27,47</t>
+          <t>6,18; 27,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 19,33</t>
+          <t>-7,41; 19,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 1319,02</t>
+          <t>-8,13; 1331,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,86; 294,25</t>
+          <t>28,22; 291,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 165,44</t>
+          <t>-34,1; 180,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 22,84</t>
+          <t>-14,52; 21,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 25,15</t>
+          <t>-12,21; 27,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 33,67</t>
+          <t>6,71; 32,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 343,22</t>
+          <t>-52,39; 278,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 277,37</t>
+          <t>-37,33; 325,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,78; —</t>
+          <t>26,15; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 16,56</t>
+          <t>-5,37; 16,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 19,51</t>
+          <t>-11,83; 20,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 29,5</t>
+          <t>-4,68; 28,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,84; 741,46</t>
+          <t>-55,55; 635,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 152,72</t>
+          <t>-37,81; 158,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 223,71</t>
+          <t>-18,4; 208,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,94</t>
+          <t>-5,7; 4,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 17,19</t>
+          <t>-2,45; 18,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 24,09</t>
+          <t>3,29; 24,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-77,17; 307,3</t>
+          <t>-80,05; 331,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 183,33</t>
+          <t>-17,8; 207,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,71; 275,81</t>
+          <t>14,18; 288,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 15,22</t>
+          <t>-2,52; 16,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 18,89</t>
+          <t>1,32; 18,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 12,6</t>
+          <t>-2,74; 11,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 174,06</t>
+          <t>-15,23; 203,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,03; 398,08</t>
+          <t>-3,74; 334,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 228,83</t>
+          <t>-25,79; 196,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,88</t>
+          <t>1,94; 9,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,44</t>
+          <t>6,19; 15,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,84; 14,12</t>
+          <t>5,9; 14,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,21; 137,27</t>
+          <t>18,86; 139,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>35,68; 126,74</t>
+          <t>36,56; 127,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,26; 142,64</t>
+          <t>42,45; 142,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 9,26</t>
+          <t>-15,17; 9,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,32 +678,32 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 29,72</t>
+          <t>-7,97; 31,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 15,85</t>
+          <t>-1,05; 15,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 192,53</t>
+          <t>-25,27; 189,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 901,21</t>
+          <t>-27,18; 894,8</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 17,83</t>
+          <t>0,78; 18,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 30,83</t>
+          <t>4,48; 32,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 26,84</t>
+          <t>6,59; 26,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 24,09</t>
+          <t>7,0; 24,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 1136,83</t>
+          <t>-12,56; 1229,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 359,22</t>
+          <t>14,03; 370,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,16; 1155,89</t>
+          <t>43,15; 972,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,28; 322,16</t>
+          <t>39,02; 381,45</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 16,91</t>
+          <t>-3,26; 17,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 19,61</t>
+          <t>-8,79; 19,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 13,67</t>
+          <t>-7,56; 12,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 11,44</t>
+          <t>-8,23; 12,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,47; 798,73</t>
+          <t>-40,77; 935,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,14; 220,02</t>
+          <t>-39,94; 235,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-65,14; 368,27</t>
+          <t>-69,91; 336,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 59,56</t>
+          <t>-27,51; 67,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 21,06</t>
+          <t>0,94; 21,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 27,21</t>
+          <t>6,71; 28,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 19,89</t>
+          <t>-7,2; 19,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 17,86</t>
+          <t>3,43; 17,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 1331,08</t>
+          <t>-17,01; 1273,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,22; 291,5</t>
+          <t>34,1; 287,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 180,91</t>
+          <t>-35,32; 172,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,28; 327,21</t>
+          <t>19,16; 328,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 21,17</t>
+          <t>-13,98; 22,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 27,55</t>
+          <t>-13,48; 27,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 32,61</t>
+          <t>5,07; 31,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 16,79</t>
+          <t>-5,75; 16,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-52,39; 278,36</t>
+          <t>-56,81; 302,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 325,89</t>
+          <t>-43,63; 286,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,15; —</t>
+          <t>13,39; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 168,11</t>
+          <t>-24,87; 151,95</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 16,22</t>
+          <t>-5,29; 17,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 20,26</t>
+          <t>-12,63; 18,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 28,33</t>
+          <t>-3,57; 28,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 19,52</t>
+          <t>0,72; 20,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 635,6</t>
+          <t>-55,28; 753,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 158,4</t>
+          <t>-41,26; 129,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 208,42</t>
+          <t>-17,6; 238,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 107,59</t>
+          <t>2,76; 121,79</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 4,94</t>
+          <t>-5,03; 4,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 18,25</t>
+          <t>-3,56; 17,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,29; 24,22</t>
+          <t>5,21; 25,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 14,93</t>
+          <t>-13,36; 15,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-80,05; 331,16</t>
+          <t>-80,46; 279,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 207,77</t>
+          <t>-19,66; 193,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 288,45</t>
+          <t>25,91; 304,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 137,3</t>
+          <t>-68,49; 147,1</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 16,14</t>
+          <t>-4,13; 14,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,32; 18,47</t>
+          <t>1,97; 19,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 11,72</t>
+          <t>-3,17; 13,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,16; 15,96</t>
+          <t>4,38; 15,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 203,14</t>
+          <t>-23,16; 156,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 334,34</t>
+          <t>8,36; 429,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 196,43</t>
+          <t>-30,77; 247,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33,12; 257,52</t>
+          <t>32,76; 259,9</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,11</t>
+          <t>2,41; 9,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,19; 15,54</t>
+          <t>6,34; 15,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,24</t>
+          <t>5,36; 13,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,42; 11,13</t>
+          <t>1,01; 11,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,86; 139,52</t>
+          <t>23,43; 143,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>36,56; 127,15</t>
+          <t>35,77; 131,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>42,45; 142,03</t>
+          <t>38,08; 131,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,27; 90,87</t>
+          <t>8,77; 91,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-30,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-38,51%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>-14,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>127,24%</t>
+          <t>-7,78%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 9,74</t>
+          <t>-9,74; 15,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,18; -12,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 31,35</t>
+          <t>-31,35; 7,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 15,81</t>
+          <t>-15,52; 1,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-9,99; 18,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,75; -16,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 189,61</t>
+          <t>-37,74; 11,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 894,8</t>
+          <t>-15,85; 1,33</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>-9,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,95</t>
+          <t>-17,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>-15,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,92</t>
+          <t>-15,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>208,39%</t>
+          <t>-9,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>110,19%</t>
+          <t>-21,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>252,06%</t>
+          <t>-16,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>132,33%</t>
+          <t>-17,71%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 18,29</t>
+          <t>-18,29; -0,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 32,29</t>
+          <t>-32,29; -4,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 26,66</t>
+          <t>-26,66; -6,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 24,52</t>
+          <t>-24,03; -6,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 1229,69</t>
+          <t>-19,01; -0,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,03; 370,19</t>
+          <t>-35,41; -6,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,15; 972,0</t>
+          <t>-28,0; -7,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,02; 381,45</t>
+          <t>-26,04; -8,44</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>-7,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>130,62%</t>
+          <t>-7,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>-7,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>-1,73%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 17,15</t>
+          <t>-17,15; 3,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 19,5</t>
+          <t>-19,5; 8,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 12,92</t>
+          <t>-12,92; 7,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 12,04</t>
+          <t>-11,87; 8,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 935,99</t>
+          <t>-17,74; 3,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 235,39</t>
+          <t>-21,52; 11,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-69,91; 336,53</t>
+          <t>-13,7; 8,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 67,73</t>
+          <t>-14,41; 12,13</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,01</t>
+          <t>-11,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,26</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>-10,79</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>235,21%</t>
+          <t>-11,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>120,05%</t>
+          <t>-11,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>-6,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>114,19%</t>
+          <t>-11,91%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 21,81</t>
+          <t>-21,81; -0,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 28,16</t>
+          <t>-23,0; 2,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 19,21</t>
+          <t>-19,21; 7,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 17,85</t>
+          <t>-17,78; -3,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 1273,26</t>
+          <t>-22,74; -1,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,1; 287,46</t>
+          <t>-25,4; 2,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 172,4</t>
+          <t>-21,62; 9,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,16; 328,96</t>
+          <t>-19,08; -4,15</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,34</t>
+          <t>-18,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>-4,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>-10,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>478,42%</t>
+          <t>-19,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>-6,67%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 22,28</t>
+          <t>-22,28; 13,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 27,34</t>
+          <t>-27,34; 13,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 31,28</t>
+          <t>-31,28; -5,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 16,38</t>
+          <t>-15,93; 5,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,81; 302,18</t>
+          <t>-24,65; 19,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 286,18</t>
+          <t>-30,9; 20,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,39; —</t>
+          <t>-32,36; -5,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,87; 151,95</t>
+          <t>-18,08; 7,7</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,12</t>
+          <t>-12,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,06</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>74,15%</t>
+          <t>-6,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>-15,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>-13,13%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 17,51</t>
+          <t>-17,51; 5,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 18,66</t>
+          <t>-18,66; 12,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 28,96</t>
+          <t>-28,96; 3,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 20,32</t>
+          <t>-20,47; -0,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,28; 753,67</t>
+          <t>-18,61; 6,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,26; 129,14</t>
+          <t>-22,53; 18,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 238,63</t>
+          <t>-33,62; 4,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 121,79</t>
+          <t>-24,95; -1,46</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>-13,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>-0,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>48,27%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>105,53%</t>
+          <t>-15,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 4,52</t>
+          <t>-4,52; 5,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 17,49</t>
+          <t>-17,49; 3,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 25,11</t>
+          <t>-25,11; -5,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 15,19</t>
+          <t>-14,84; 16,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-80,46; 279,99</t>
+          <t>-4,69; 5,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 193,94</t>
+          <t>-19,37; 4,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,91; 304,48</t>
+          <t>-27,68; -6,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-68,49; 147,1</t>
+          <t>-16,67; 20,32</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>-10,52</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,14</t>
+          <t>-9,56</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>116,77%</t>
+          <t>-11,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>-4,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>113,51%</t>
+          <t>-10,48%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 14,51</t>
+          <t>-14,51; 4,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,97; 19,12</t>
+          <t>-19,12; -1,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 13,06</t>
+          <t>-13,06; 3,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,38; 15,89</t>
+          <t>-14,65; -4,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 156,97</t>
+          <t>-16,39; 5,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,36; 429,73</t>
+          <t>-20,62; -2,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 247,14</t>
+          <t>-13,81; 3,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,76; 259,9</t>
+          <t>-15,63; -4,75</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>-9,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>69,49%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>-12,9%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>-5,95%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,31</t>
+          <t>-9,31; -2,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,34; 15,81</t>
+          <t>-15,81; -6,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,36; 13,81</t>
+          <t>-13,81; -5,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 11,25</t>
+          <t>-10,89; 3,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>23,43; 143,14</t>
+          <t>-9,95; -2,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>35,77; 131,4</t>
+          <t>-17,81; -7,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>38,08; 131,32</t>
+          <t>-15,5; -6,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,77; 91,96</t>
+          <t>-12,37; 4,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 15,17</t>
+          <t>-8,51; 15,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-47,18; -12,17</t>
+          <t>-47,94; -10,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 7,97</t>
+          <t>-30,41; 7,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 1,22</t>
+          <t>-16,26; 1,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 18,44</t>
+          <t>-8,97; 19,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,75; -16,07</t>
+          <t>-53,51; -13,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,74; 11,45</t>
+          <t>-37,54; 10,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 1,33</t>
+          <t>-16,84; 1,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -0,78</t>
+          <t>-18,25; -0,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,29; -4,48</t>
+          <t>-30,89; -3,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,66; -6,59</t>
+          <t>-26,23; -5,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,03; -6,88</t>
+          <t>-24,24; -6,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,01; -0,97</t>
+          <t>-18,84; -0,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,41; -6,09</t>
+          <t>-35,39; -5,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,0; -7,14</t>
+          <t>-27,48; -6,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,04; -8,44</t>
+          <t>-26,41; -7,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 3,26</t>
+          <t>-17,3; 3,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 8,79</t>
+          <t>-19,28; 8,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 7,56</t>
+          <t>-12,71; 7,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 8,35</t>
+          <t>-12,75; 8,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 3,52</t>
+          <t>-17,82; 3,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 11,44</t>
+          <t>-22,14; 12,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 8,5</t>
+          <t>-13,47; 8,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 12,13</t>
+          <t>-15,62; 12,63</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,81; -0,94</t>
+          <t>-21,54; -1,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 2,2</t>
+          <t>-21,37; 3,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 7,2</t>
+          <t>-18,63; 8,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,78; -3,51</t>
+          <t>-17,18; -2,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,74; -1,32</t>
+          <t>-21,92; -1,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 2,63</t>
+          <t>-24,1; 4,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 9,1</t>
+          <t>-21,94; 10,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,08; -4,15</t>
+          <t>-18,5; -3,45</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 13,98</t>
+          <t>-20,79; 14,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 13,48</t>
+          <t>-26,39; 11,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,28; -5,07</t>
+          <t>-33,5; -6,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 5,76</t>
+          <t>-15,94; 5,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 19,42</t>
+          <t>-23,31; 20,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 20,15</t>
+          <t>-30,46; 16,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,36; -5,52</t>
+          <t>-33,9; -6,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 7,7</t>
+          <t>-18,14; 7,83</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 5,29</t>
+          <t>-18,01; 5,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 12,63</t>
+          <t>-20,11; 12,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 3,57</t>
+          <t>-27,21; 5,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,47; -0,99</t>
+          <t>-19,83; -0,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 6,03</t>
+          <t>-19,01; 6,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 18,23</t>
+          <t>-23,38; 18,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 4,15</t>
+          <t>-32,36; 6,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -1,46</t>
+          <t>-24,16; -0,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,03</t>
+          <t>-5,17; 4,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 3,56</t>
+          <t>-16,05; 5,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,11; -5,21</t>
+          <t>-24,4; -4,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 16,24</t>
+          <t>-15,14; 15,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 5,34</t>
+          <t>-5,27; 5,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 4,39</t>
+          <t>-18,02; 6,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-27,68; -6,13</t>
+          <t>-27,46; -5,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 20,32</t>
+          <t>-16,93; 19,21</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 4,13</t>
+          <t>-14,91; 3,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -1,97</t>
+          <t>-18,98; -1,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 3,17</t>
+          <t>-12,18; 3,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,65; -4,12</t>
+          <t>-15,62; -4,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 5,06</t>
+          <t>-16,52; 4,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,62; -2,43</t>
+          <t>-20,24; -2,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 3,54</t>
+          <t>-13,0; 4,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,63; -4,75</t>
+          <t>-16,67; -4,87</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,41</t>
+          <t>-9,12; -2,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,34</t>
+          <t>-15,71; -5,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -5,36</t>
+          <t>-14,35; -5,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 3,48</t>
+          <t>-10,76; 3,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -2,66</t>
+          <t>-9,75; -2,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -7,53</t>
+          <t>-17,86; -7,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -6,25</t>
+          <t>-16,09; -6,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 4,07</t>
+          <t>-12,32; 3,89</t>
         </is>
       </c>
     </row>
